--- a/Ejemplos.xlsx
+++ b/Ejemplos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aure/Documents/Experimentación IA/AlertIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34566830-BC7A-2744-B69D-E68571B5A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C44E3A-176D-E14C-86B1-A671F5F082FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="214">
   <si>
     <t>Matriz de obligaciones (plantilla con lógica de fechas)</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>Subestatus</t>
+  </si>
+  <si>
+    <t>OB-CNBV-100</t>
   </si>
 </sst>
 </file>
@@ -934,8 +937,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_obligaciones" displayName="tbl_obligaciones" ref="B4:AC20" headerRowDxfId="6">
-  <autoFilter ref="B4:AC20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_obligaciones" displayName="tbl_obligaciones" ref="B4:AC21" headerRowDxfId="6">
+  <autoFilter ref="B4:AC21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Disposición resumida"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Órgano / Regulador"/>
@@ -1257,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2527,7 @@
         <v>209</v>
       </c>
       <c r="V18" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Z18" s="11">
         <v>46078</v>
@@ -2541,31 +2544,31 @@
     </row>
     <row r="19" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>28</v>
@@ -2574,23 +2577,23 @@
         <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="P19" s="8">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="Q19" s="2">
-        <v>46692</v>
+        <v>46297</v>
       </c>
       <c r="R19" s="3">
         <f ca="1">tbl_obligaciones[[#This Row],[Fecha límite de entrega]]-TODAY()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" t="s">
@@ -2600,7 +2603,10 @@
         <v>209</v>
       </c>
       <c r="V19" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>46078</v>
       </c>
       <c r="AA19" s="12" t="s">
         <v>203</v>
@@ -2614,56 +2620,56 @@
     </row>
     <row r="20" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P20" s="8">
-        <v>46023</v>
+        <v>46042</v>
       </c>
       <c r="Q20" s="2">
-        <v>46392</v>
+        <v>46692</v>
       </c>
       <c r="R20" s="3">
         <f ca="1">tbl_obligaciones[[#This Row],[Fecha límite de entrega]]-TODAY()</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" t="s">
@@ -2673,7 +2679,7 @@
         <v>209</v>
       </c>
       <c r="V20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>203</v>
@@ -2682,6 +2688,79 @@
         <v>207</v>
       </c>
       <c r="AC20" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="8">
+        <v>46023</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>46392</v>
+      </c>
+      <c r="R21" s="3">
+        <f ca="1">tbl_obligaciones[[#This Row],[Fecha límite de entrega]]-TODAY()</f>
+        <v>-19</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" t="s">
+        <v>209</v>
+      </c>
+      <c r="U21" t="s">
+        <v>209</v>
+      </c>
+      <c r="V21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC21" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2691,7 +2770,7 @@
     <mergeCell ref="B1:S1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="R5:R20">
+  <conditionalFormatting sqref="R5:R21">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2705,15 +2784,18 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AA5" r:id="rId1" xr:uid="{1D5F6C83-EE00-644F-B6C3-59E77C87CA55}"/>
-    <hyperlink ref="AA6:AA20" r:id="rId2" display="auremauwer@gmail.com" xr:uid="{7570CFF3-D45E-544E-9F56-A8E73F914BD3}"/>
+    <hyperlink ref="AA6:AA21" r:id="rId2" display="auremauwer@gmail.com" xr:uid="{7570CFF3-D45E-544E-9F56-A8E73F914BD3}"/>
     <hyperlink ref="AB5" r:id="rId3" xr:uid="{CF32C323-D6CD-F64D-80F4-BD8B0A824851}"/>
-    <hyperlink ref="AB6:AB20" r:id="rId4" display="auremauwer@hotmail.com" xr:uid="{72D01F54-BA2B-5C42-9A50-F48AF38D310D}"/>
+    <hyperlink ref="AB6:AB21" r:id="rId4" display="auremauwer@hotmail.com" xr:uid="{72D01F54-BA2B-5C42-9A50-F48AF38D310D}"/>
     <hyperlink ref="AC5" r:id="rId5" xr:uid="{2517659A-ED1A-5941-BBAC-C4F283087F0C}"/>
-    <hyperlink ref="AC6:AC20" r:id="rId6" display="auremauwer@yahoo.com" xr:uid="{B3B3BE5C-1B7B-3246-8984-529D74C7105E}"/>
+    <hyperlink ref="AC6:AC21" r:id="rId6" display="auremauwer@yahoo.com" xr:uid="{B3B3BE5C-1B7B-3246-8984-529D74C7105E}"/>
+    <hyperlink ref="AA18" r:id="rId7" xr:uid="{7505AA0F-0F08-A849-BD64-A55D50F4C97E}"/>
+    <hyperlink ref="AB18" r:id="rId8" xr:uid="{02895F0B-B08F-2D47-AFC6-A5DB69B51D12}"/>
+    <hyperlink ref="AC18" r:id="rId9" xr:uid="{C3E31EA2-C97A-3A40-B703-8F329DA09395}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2722,49 +2804,49 @@
           <x14:formula1>
             <xm:f>Catalogos!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I20 K5:L20</xm:sqref>
+          <xm:sqref>K5:L21 I5:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Periodicidad" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Catalogos!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N20</xm:sqref>
+          <xm:sqref>N5:N21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Plazo de entrega" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Catalogos!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O5:O20</xm:sqref>
+          <xm:sqref>O5:O21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Área responsable" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Catalogos!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H20</xm:sqref>
+          <xm:sqref>H5:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Órgano / Regulador" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Catalogos!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C20</xm:sqref>
+          <xm:sqref>C5:C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Disposición resumida" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Catalogos!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B20</xm:sqref>
+          <xm:sqref>B5:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Órgano / Regulador al que se envía" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Catalogos!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M5:M20</xm:sqref>
+          <xm:sqref>M5:M21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" promptTitle="Selecciona un valor" prompt="Comité" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Catalogos!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J20</xm:sqref>
+          <xm:sqref>J5:J21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
